--- a/logs/boat_logs/PhlipsBoatMaintenanceLog.xlsx
+++ b/logs/boat_logs/PhlipsBoatMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -200,7 +200,16 @@
     <t>multiple fuel line leaks, runs rough at low rpms</t>
   </si>
   <si>
-    <t>new spark plugs/carb adjustment</t>
+    <t>repair hull breach (weld/epoxy) plus new half deck complete</t>
+  </si>
+  <si>
+    <t>repacked trailer bearings</t>
+  </si>
+  <si>
+    <t>new spark plugs/carb adjustment/tighten water seperator</t>
+  </si>
+  <si>
+    <t>ring seal treatment added to address rough idle/tighten fuel seperator</t>
   </si>
 </sst>
 </file>
@@ -519,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +959,7 @@
         <v>43656</v>
       </c>
       <c r="X26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -1008,6 +1017,68 @@
         <v>20</v>
       </c>
     </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="F33" s="1">
+        <v>43735</v>
+      </c>
+      <c r="X33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43742</v>
+      </c>
+      <c r="B34">
+        <v>120</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="F35" s="1">
+        <v>43749</v>
+      </c>
+      <c r="J35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F36" s="1">
+        <v>43777</v>
+      </c>
+      <c r="X36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B37">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43786</v>
+      </c>
+      <c r="B38">
+        <v>120</v>
+      </c>
+      <c r="X38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43788</v>
+      </c>
+      <c r="B39">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs/boat_logs/PhlipsBoatMaintenanceLog.xlsx
+++ b/logs/boat_logs/PhlipsBoatMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>ring seal treatment added to address rough idle/tighten fuel seperator</t>
+  </si>
+  <si>
+    <t>starter solenoid replaced</t>
   </si>
 </sst>
 </file>
@@ -528,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W52" sqref="W52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,6 +1082,57 @@
         <v>120</v>
       </c>
     </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43798</v>
+      </c>
+      <c r="B40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B41">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B42">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43801</v>
+      </c>
+      <c r="B43">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43802</v>
+      </c>
+      <c r="B44">
+        <v>120</v>
+      </c>
+      <c r="X44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43803</v>
+      </c>
+      <c r="B45">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
